--- a/data/trans_dic/P33B_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R4-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03886490909725483</v>
+        <v>0.03886490909725484</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.07632020287651851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05751041827571455</v>
+        <v>0.05751041827571456</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02137310838783612</v>
+        <v>0.02129869675119112</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05693383147214381</v>
+        <v>0.05455736811716742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04396740867778931</v>
+        <v>0.04451302824973733</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06530014762725718</v>
+        <v>0.06663162843126684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1026905241343838</v>
+        <v>0.1009253588258581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07542139122883552</v>
+        <v>0.07491172596186768</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04727948062645553</v>
+        <v>0.04868425827246462</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.110616928886103</v>
+        <v>0.1091523902620558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08678863856513645</v>
+        <v>0.08706195292292961</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1009715000393873</v>
+        <v>0.09782112907122509</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1630624170637527</v>
+        <v>0.1605765973466017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1231994647435826</v>
+        <v>0.1228407510812135</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1694479711730735</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2020171553225313</v>
+        <v>0.2020171553225312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1867613697017982</v>
+        <v>0.1867613697017983</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1317621184160292</v>
+        <v>0.1317195062980695</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1684502163994276</v>
+        <v>0.1711018755714814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1642033683661731</v>
+        <v>0.161938053305757</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2100700699045615</v>
+        <v>0.2164528692195309</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2383266124302555</v>
+        <v>0.2384740958237927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2149714559768482</v>
+        <v>0.2133876836249141</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1729493201237401</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2583925343571512</v>
+        <v>0.2583925343571513</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2182729038231541</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1251787282365759</v>
+        <v>0.1280318975983533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2235432616784018</v>
+        <v>0.2180993701251101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1843608044544596</v>
+        <v>0.1874176467490247</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2324280586141854</v>
+        <v>0.2315247060088988</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3025768393789321</v>
+        <v>0.3008804468664334</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2539931276344963</v>
+        <v>0.2546463870853032</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.07433246820296678</v>
+        <v>0.07433246820296677</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1170496336235711</v>
+        <v>0.117049633623571</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09673597640193578</v>
+        <v>0.09673597640193579</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04926713903546581</v>
+        <v>0.04845623829957089</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09020398041996382</v>
+        <v>0.09307864372457034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07793330670621292</v>
+        <v>0.07877687644835253</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1071364750918521</v>
+        <v>0.1077346454873063</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1476661042445315</v>
+        <v>0.1495741788112502</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1180949092340408</v>
+        <v>0.1177715614459493</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1412425402800592</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2431030521257159</v>
+        <v>0.2431030521257158</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1915098697416972</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1078633572642607</v>
+        <v>0.1075215229114388</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2064060768781437</v>
+        <v>0.2059565153494778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1657727051970397</v>
+        <v>0.1665069472226511</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.18357402318978</v>
+        <v>0.1822177583773163</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2877470469447677</v>
+        <v>0.2834236710440597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2183402404665768</v>
+        <v>0.2185486910211406</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1464524181587929</v>
+        <v>0.146452418158793</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.280005764437246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2156235414195399</v>
+        <v>0.21562354141954</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1169284768923847</v>
+        <v>0.1151038601342382</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.245983353401557</v>
+        <v>0.2495712420719037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1957477692015205</v>
+        <v>0.1932497018451378</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1809117686317327</v>
+        <v>0.1782623652196072</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3090805536283569</v>
+        <v>0.3126894809126198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2383021685813677</v>
+        <v>0.2405443762285965</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.2017598572103168</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.3078842786191186</v>
+        <v>0.3078842786191187</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2558821136537082</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1721054354943264</v>
+        <v>0.175331431751107</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2825847589311341</v>
+        <v>0.2814412612293454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2384968669596772</v>
+        <v>0.235847934068052</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2307414802635631</v>
+        <v>0.229118866199632</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3380221264298077</v>
+        <v>0.3362476716856075</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2772698031266378</v>
+        <v>0.2770092711282074</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6815</v>
+        <v>6791</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17995</v>
+        <v>17243</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27915</v>
+        <v>28262</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20821</v>
+        <v>21245</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32456</v>
+        <v>31899</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47885</v>
+        <v>47562</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25089</v>
+        <v>25834</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60370</v>
+        <v>59570</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>93419</v>
+        <v>93714</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53580</v>
+        <v>51908</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88992</v>
+        <v>87635</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>132612</v>
+        <v>132226</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41377</v>
+        <v>41363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60032</v>
+        <v>60977</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110083</v>
+        <v>108565</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65968</v>
+        <v>67972</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84935</v>
+        <v>84988</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>144119</v>
+        <v>143057</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46710</v>
+        <v>47774</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>94234</v>
+        <v>91939</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>146510</v>
+        <v>148939</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86729</v>
+        <v>86392</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127550</v>
+        <v>126835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>201846</v>
+        <v>202365</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10133</v>
+        <v>9966</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20460</v>
+        <v>21112</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33705</v>
+        <v>34070</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22034</v>
+        <v>22157</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33494</v>
+        <v>33927</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51075</v>
+        <v>50935</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29199</v>
+        <v>29107</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>54440</v>
+        <v>54321</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>88598</v>
+        <v>88991</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>49695</v>
+        <v>49328</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>75893</v>
+        <v>74753</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>116693</v>
+        <v>116805</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>84025</v>
+        <v>82714</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>189913</v>
+        <v>192683</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>291794</v>
+        <v>288070</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>130004</v>
+        <v>128100</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>238628</v>
+        <v>241414</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>355228</v>
+        <v>358570</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>137353</v>
+        <v>139927</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>234717</v>
+        <v>233768</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>388435</v>
+        <v>384121</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>184148</v>
+        <v>182853</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>280764</v>
+        <v>279290</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>451584</v>
+        <v>451160</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
     </row>
     <row r="40">
